--- a/StructureDefinition-SzLabResult.xlsx
+++ b/StructureDefinition-SzLabResult.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://192.168.10.200:3447/fhir/StructureDefinition/SzLabResult</t>
+    <t>http://172.209.216.154:3447/fhir/StructureDefinition/SzLabResult</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T11:11:31+00:00</t>
+    <t>2025-07-14T08:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Ministry of Health Eswatini (https://192.168.10.200:3447, eswatinihie@moh.gov.sz)</t>
+    <t>Ministry of Health Eswatini (https://172.209.216.154:3447, eswatinihie@moh.gov.sz)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -468,7 +468,7 @@
     <t>authorizer</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://192.168.10.200:3447/fhir/StructureDefinition/SzAuthorizerExtension}
+    <t xml:space="preserve">Extension {http://172.209.216.154:3447/fhir/StructureDefinition/SzAuthorizerExtension}
 </t>
   </si>
   <si>
@@ -488,7 +488,7 @@
     <t>testingLaboratory</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://192.168.10.200:3447/fhir/StructureDefinition/SzTestingLabExtension}
+    <t xml:space="preserve">Extension {http://172.209.216.154:3447/fhir/StructureDefinition/SzTestingLabExtension}
 </t>
   </si>
   <si>
@@ -696,7 +696,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://192.168.10.200:3447/fhir/ValueSet/SzTestParameterCodeVS</t>
+    <t>http://172.209.216.154:3447/fhir/ValueSet/SzTestParameterCodeVS</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -720,7 +720,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://192.168.10.200:3447/fhir/StructureDefinition/SzPatient)
+    <t xml:space="preserve">Reference(http://172.209.216.154:3447/fhir/StructureDefinition/SzPatient)
 </t>
   </si>
   <si>
@@ -774,7 +774,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://192.168.10.200:3447/fhir/StructureDefinition/SzEncounter)
+    <t xml:space="preserve">Reference(http://172.209.216.154:3447/fhir/StructureDefinition/SzEncounter)
 </t>
   </si>
   <si>
@@ -865,7 +865,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://192.168.10.200:3447/fhir/StructureDefinition/SzPractitioner)
+    <t xml:space="preserve">Reference(http://172.209.216.154:3447/fhir/StructureDefinition/SzPractitioner)
 </t>
   </si>
   <si>
@@ -1083,7 +1083,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://192.168.10.200:3447/fhir/StructureDefinition/SzLabSpecimen)
+    <t xml:space="preserve">Reference(http://172.209.216.154:3447/fhir/StructureDefinition/SzLabSpecimen)
 </t>
   </si>
   <si>
@@ -1814,7 +1814,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="53.5078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.5078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-SzLabResult.xlsx
+++ b/StructureDefinition-SzLabResult.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-14T08:08:58+00:00</t>
+    <t>2025-07-16T14:06:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzLabResult.xlsx
+++ b/StructureDefinition-SzLabResult.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T14:06:30+00:00</t>
+    <t>2025-08-01T12:25:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzLabResult.xlsx
+++ b/StructureDefinition-SzLabResult.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T12:25:19+00:00</t>
+    <t>2025-09-08T12:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2935,7 +2935,7 @@
         <v>91</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>20</v>
@@ -3055,7 +3055,7 @@
         <v>91</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>20</v>
@@ -3771,10 +3771,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-SzLabResult.xlsx
+++ b/StructureDefinition-SzLabResult.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T12:30:01+00:00</t>
+    <t>2025-09-09T15:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzLabResult.xlsx
+++ b/StructureDefinition-SzLabResult.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T15:13:38+00:00</t>
+    <t>2025-09-10T08:40:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzLabResult.xlsx
+++ b/StructureDefinition-SzLabResult.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T08:40:27+00:00</t>
+    <t>2025-09-10T10:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzLabResult.xlsx
+++ b/StructureDefinition-SzLabResult.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T10:05:20+00:00</t>
+    <t>2025-09-19T08:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
